--- a/Семестрова робота/tables.xlsx
+++ b/Семестрова робота/tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ICS-485773\ICS-485773\Семестрова робота\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Комп. науки\Laboratorni\Семестрова робота\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -215,12 +215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -232,6 +226,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,12 +528,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -713,11 +713,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -845,32 +845,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -895,211 +895,211 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>202</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
         <v>10</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>40</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <f>D4*E4</f>
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>203</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>10</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>900</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F13" si="0">D5*E5</f>
         <v>9000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>204</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
         <v>40</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>205</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
         <v>900</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>206</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="9">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
         <v>900</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>207</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
         <v>10</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>600</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>210</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>1245</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>3735</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>211</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="7">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7">
         <v>20</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>212</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>500</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>213</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="9">
-        <v>5</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7">
         <v>500</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
